--- a/scream_dsprites/results_scream_dsprites_aggregated.xlsx
+++ b/scream_dsprites/results_scream_dsprites_aggregated.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>beta_tc_vae_c_max</t>
+          <t>annealed_vae_c_max</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
